--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N2">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O2">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P2">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q2">
-        <v>16.81914278002489</v>
+        <v>11.218767803242</v>
       </c>
       <c r="R2">
-        <v>151.372285020224</v>
+        <v>100.968910229178</v>
       </c>
       <c r="S2">
-        <v>0.09098048215809287</v>
+        <v>0.07612508305044144</v>
       </c>
       <c r="T2">
-        <v>0.09098048215809283</v>
+        <v>0.07612508305044142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.371875</v>
       </c>
       <c r="O3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q3">
-        <v>19.35857942777778</v>
+        <v>15.42952105590278</v>
       </c>
       <c r="R3">
-        <v>174.22721485</v>
+        <v>138.865689503125</v>
       </c>
       <c r="S3">
-        <v>0.1047171614671526</v>
+        <v>0.1046971995863668</v>
       </c>
       <c r="T3">
-        <v>0.1047171614671526</v>
+        <v>0.1046971995863668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N4">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q4">
-        <v>2.641363923228444</v>
+        <v>2.603007333090778</v>
       </c>
       <c r="R4">
-        <v>23.772275309056</v>
+        <v>23.427065997817</v>
       </c>
       <c r="S4">
-        <v>0.01428803872072011</v>
+        <v>0.01766273737791247</v>
       </c>
       <c r="T4">
-        <v>0.01428803872072011</v>
+        <v>0.01766273737791248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N5">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O5">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P5">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q5">
-        <v>38.724066889328</v>
+        <v>32.40733384015201</v>
       </c>
       <c r="R5">
-        <v>348.516602003952</v>
+        <v>291.6660045613681</v>
       </c>
       <c r="S5">
-        <v>0.209471690846071</v>
+        <v>0.219900351205418</v>
       </c>
       <c r="T5">
-        <v>0.209471690846071</v>
+        <v>0.219900351205418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>120.371875</v>
       </c>
       <c r="O6">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P6">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q6">
         <v>44.5708163875</v>
@@ -818,10 +818,10 @@
         <v>401.1373474875</v>
       </c>
       <c r="S6">
-        <v>0.2410987538515073</v>
+        <v>0.3024358074461543</v>
       </c>
       <c r="T6">
-        <v>0.2410987538515073</v>
+        <v>0.3024358074461543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N7">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O7">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P7">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q7">
-        <v>6.081424872832</v>
+        <v>7.519232870428</v>
       </c>
       <c r="R7">
-        <v>54.732823855488</v>
+        <v>67.673095833852</v>
       </c>
       <c r="S7">
-        <v>0.03289650218057399</v>
+        <v>0.05102184453550484</v>
       </c>
       <c r="T7">
-        <v>0.03289650218057398</v>
+        <v>0.05102184453550485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N8">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O8">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P8">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q8">
-        <v>24.55340735767956</v>
+        <v>12.895885771122</v>
       </c>
       <c r="R8">
-        <v>220.980666219116</v>
+        <v>116.062971940098</v>
       </c>
       <c r="S8">
-        <v>0.1328177582676092</v>
+        <v>0.08750518707161194</v>
       </c>
       <c r="T8">
-        <v>0.1328177582676092</v>
+        <v>0.08750518707161192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.371875</v>
       </c>
       <c r="O9">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P9">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q9">
-        <v>28.26060119548611</v>
+        <v>17.73611367395833</v>
       </c>
       <c r="R9">
-        <v>254.345410759375</v>
+        <v>159.625023065625</v>
       </c>
       <c r="S9">
-        <v>0.1528712346681855</v>
+        <v>0.1203486113717388</v>
       </c>
       <c r="T9">
-        <v>0.1528712346681854</v>
+        <v>0.1203486113717388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N10">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O10">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P10">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q10">
-        <v>3.855992260433778</v>
+        <v>2.992136553466333</v>
       </c>
       <c r="R10">
-        <v>34.703930343904</v>
+        <v>26.929228981197</v>
       </c>
       <c r="S10">
-        <v>0.02085837784008754</v>
+        <v>0.02030317835485134</v>
       </c>
       <c r="T10">
-        <v>0.02085837784008754</v>
+        <v>0.02030317835485134</v>
       </c>
     </row>
   </sheetData>
